--- a/Plot_Edit.xlsx
+++ b/Plot_Edit.xlsx
@@ -12,9 +12,12 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10644"/>
   </bookViews>
   <sheets>
-    <sheet name="Свинец" sheetId="1" r:id="rId1"/>
-    <sheet name="Бессвинец" sheetId="2" r:id="rId2"/>
-    <sheet name="Только Низ" sheetId="3" r:id="rId3"/>
+    <sheet name="Значения ПИД и Настройки" sheetId="7" r:id="rId1"/>
+    <sheet name="Свинец" sheetId="1" r:id="rId2"/>
+    <sheet name="Бессвинец" sheetId="2" r:id="rId3"/>
+    <sheet name="Только Низ (2)" sheetId="4" r:id="rId4"/>
+    <sheet name="Калибровка ПИД" sheetId="5" r:id="rId5"/>
+    <sheet name="Калибровка ПИД Шаги" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="53">
   <si>
     <t>ВИ</t>
   </si>
@@ -97,17 +100,101 @@
     <t>ВЕРХ</t>
   </si>
   <si>
-    <t>Нумерация шагов - как их видит Arduino</t>
+    <t>НЕ ИЗМЕНЯЕМ</t>
   </si>
   <si>
-    <t>НЕ ИЗМЕНЯЕМ</t>
+    <t>ПИД</t>
+  </si>
+  <si>
+    <t>kP</t>
+  </si>
+  <si>
+    <t>kI</t>
+  </si>
+  <si>
+    <t>kD</t>
+  </si>
+  <si>
+    <t>Для копирования в PortPlotter</t>
+  </si>
+  <si>
+    <t>Свинец</t>
+  </si>
+  <si>
+    <t>Бессвинец</t>
+  </si>
+  <si>
+    <t>Размер стола</t>
+  </si>
+  <si>
+    <t>Макс коррекция верха</t>
+  </si>
+  <si>
+    <t>Макс коррекция низа</t>
+  </si>
+  <si>
+    <t>Макс отклонение платы</t>
+  </si>
+  <si>
+    <t>Длительность автопаузы</t>
+  </si>
+  <si>
+    <t>Коэфициент участия верха</t>
+  </si>
+  <si>
+    <t>Горячий старт</t>
+  </si>
+  <si>
+    <t>//максимальное отклонение температуры Платы после которого включаеся АвтоПауза</t>
+  </si>
+  <si>
+    <t>//длительность автопаузы в секундах</t>
+  </si>
+  <si>
+    <t>//коэфициент участия ВИ (от 0 - догреваем только низом, до 100 догреваем только верхом)(при отклонении температыры платы от профиля)</t>
+  </si>
+  <si>
+    <t>//начинать выполнение профиля с ближайшей подходящей точки графика платы (0 - нет \ 1 - да) (горячий старт)</t>
+  </si>
+  <si>
+    <t>//максимальная коррекция температуры ВИ в обе стороны 0-100</t>
+  </si>
+  <si>
+    <t>//максимальная коррекция температуры НИ в обе стороны 0-100</t>
+  </si>
+  <si>
+    <t>секунд</t>
+  </si>
+  <si>
+    <t>градусов</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>( 1 или 0)</t>
+  </si>
+  <si>
+    <t>СКОЛЬКО ШАГОВ В ПРОФИЛЕ??</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Данные для копирования в скетч (копировать ячейки 80 - 91 только из столбца А)</t>
+  </si>
+  <si>
+    <t>Пид Шаги</t>
+  </si>
+  <si>
+    <t>Калиброввка ПИД (Импульс)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,8 +228,31 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,8 +295,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -194,11 +316,89 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -235,12 +435,58 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCCCC"/>
+      <color rgb="FFFF9999"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -768,8 +1014,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="x"/>
-            <c:size val="6"/>
+            <c:symbol val="diamond"/>
+            <c:size val="4"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="C00000"/>
@@ -871,11 +1117,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="323561768"/>
-        <c:axId val="379941304"/>
+        <c:axId val="276862608"/>
+        <c:axId val="276861432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="379941304"/>
+        <c:axId val="276861432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -945,12 +1191,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="323561768"/>
+        <c:crossAx val="276862608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="323561768"/>
+        <c:axId val="276862608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1019,7 +1265,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="379941304"/>
+        <c:crossAx val="276861432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="60"/>
@@ -1766,11 +2012,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="323561376"/>
-        <c:axId val="323560200"/>
+        <c:axId val="276862216"/>
+        <c:axId val="276860256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="323560200"/>
+        <c:axId val="276860256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1840,12 +2086,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="323561376"/>
+        <c:crossAx val="276862216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="323561376"/>
+        <c:axId val="276862216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1914,7 +2160,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="323560200"/>
+        <c:crossAx val="276860256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="60"/>
@@ -2143,7 +2389,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Только Низ'!$B$5:$B$32</c:f>
+              <c:f>'Только Низ (2)'!$B$5:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="28"/>
@@ -2236,7 +2482,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Только Низ'!$C$5:$C$32</c:f>
+              <c:f>'Только Низ (2)'!$C$5:$C$32</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="28"/>
@@ -2368,7 +2614,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Только Низ'!$J$5:$J$30</c:f>
+              <c:f>'Только Низ (2)'!$J$5:$J$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -2455,7 +2701,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Только Низ'!$K$5:$K$30</c:f>
+              <c:f>'Только Низ (2)'!$K$5:$K$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -2575,7 +2821,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Только Низ'!$R$5:$R$14</c:f>
+              <c:f>'Только Низ (2)'!$R$5:$R$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2614,7 +2860,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Только Низ'!$S$5:$S$14</c:f>
+              <c:f>'Только Низ (2)'!$S$5:$S$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2661,11 +2907,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="377796776"/>
-        <c:axId val="377797560"/>
+        <c:axId val="278369056"/>
+        <c:axId val="276861040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="377797560"/>
+        <c:axId val="276861040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2735,12 +2981,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="377796776"/>
+        <c:crossAx val="278369056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="377796776"/>
+        <c:axId val="278369056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2809,7 +3055,1797 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="377797560"/>
+        <c:crossAx val="276861040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="60"/>
+        <c:minorUnit val="20"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.85338224767358628"/>
+          <c:y val="0.13536989410977418"/>
+          <c:w val="0.11338447616860928"/>
+          <c:h val="0.11299708483401902"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Установка</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> БЕССвинец</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.76728130360205837"/>
+          <c:y val="4.7909750560942647E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.5341364919436529E-2"/>
+          <c:y val="1.4943216858458754E-2"/>
+          <c:w val="0.95362008769004381"/>
+          <c:h val="0.93328381196027199"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Температура Низа</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Калибровка ПИД'!$B$5:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>428</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>429</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>459</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>521</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>522</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>622</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Калибровка ПИД'!$C$5:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Температура Верха</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Калибровка ПИД'!$J$5:$J$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>428</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>429</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>459</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>521</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Калибровка ПИД'!$K$5:$K$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Температура Платы</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Калибровка ПИД'!$R$5:$R$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Калибровка ПИД'!$S$5:$S$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="278367488"/>
+        <c:axId val="278367096"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="278367096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="278367488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="278367488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="278367096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="60"/>
+        <c:minorUnit val="20"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.85338224767358628"/>
+          <c:y val="0.13536989410977418"/>
+          <c:w val="0.11338447616860928"/>
+          <c:h val="0.11299708483401902"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Установка</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> БЕССвинец</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.76728130360205837"/>
+          <c:y val="4.7909750560942647E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.5341364919436529E-2"/>
+          <c:y val="1.4943216858458754E-2"/>
+          <c:w val="0.95362008769004381"/>
+          <c:h val="0.93328381196027199"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Температура Низа</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Калибровка ПИД Шаги'!$B$5:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>424</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>454</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>515</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>546</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>576</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>577</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>607</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>608</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>638</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>639</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>669</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>770</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Калибровка ПИД Шаги'!$C$5:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Температура Верха</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Калибровка ПИД Шаги'!$J$5:$J$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>424</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>454</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>515</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>546</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>576</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>577</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>607</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>608</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>638</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>639</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>669</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Калибровка ПИД Шаги'!$K$5:$K$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Температура Платы</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Калибровка ПИД Шаги'!$R$5:$R$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Калибровка ПИД Шаги'!$S$5:$S$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="278369448"/>
+        <c:axId val="278366312"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="278366312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="278369448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="278369448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="278366312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="60"/>
@@ -2982,6 +5018,86 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4581,18 +6697,1058 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>418951</xdr:colOff>
+      <xdr:colOff>418950</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>90992</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>73511</xdr:colOff>
+      <xdr:colOff>510539</xdr:colOff>
       <xdr:row>69</xdr:row>
       <xdr:rowOff>111611</xdr:rowOff>
     </xdr:to>
@@ -4654,6 +7810,80 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>436880</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>99956</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>120575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>436880</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>99956</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>120575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4953,15 +8183,318 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V93"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80:A91"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="28">
+        <v>31</v>
+      </c>
+      <c r="D4" s="25">
+        <v>6</v>
+      </c>
+      <c r="F4" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="28">
+        <v>13</v>
+      </c>
+      <c r="D5" s="25">
+        <v>23</v>
+      </c>
+      <c r="F5" s="22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="29">
+        <v>37</v>
+      </c>
+      <c r="D6" s="26">
+        <v>8</v>
+      </c>
+      <c r="F6" s="23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="32"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="32"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="34">
+        <v>30</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="32"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="34">
+        <v>70</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" s="41" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="32"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="34">
+        <v>10</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="41" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="32"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="34">
+        <v>5</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="32"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="34">
+        <v>30</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="32"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="34">
+        <v>1</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="31"/>
+      <c r="H16" s="41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F19" s="31"/>
+    </row>
+    <row r="22" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H23" s="16"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" s="16"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="38" t="str">
+        <f>"N"&amp;Свинец!A81&amp;Свинец!A83&amp;Свинец!A85&amp;Свинец!A87&amp;Свинец!A89&amp;Свинец!A91&amp;","&amp;Свинец!W1&amp;","&amp;D10&amp;","&amp;B4&amp;","&amp;B5&amp;","&amp;B6&amp;","&amp;D4&amp;","&amp;D5&amp;","&amp;D6&amp;","&amp;F4&amp;","&amp;F5&amp;","&amp;F6&amp;","&amp;D11&amp;","&amp;D12&amp;","&amp;D13&amp;","&amp;D14&amp;","&amp;D15&amp;","&amp;D16&amp;";"</f>
+        <v>N0,10,40,60,80,100,120,140,160,180,200,220,240,260,280,300,320,340,360,380,400,413,481,524,0,0,0,0,0,0,84,84,102,112,122,132,157,192,211,205,195,180,180,197,232,262,289,313,335,350,344,333,161,50,0,0,0,0,0,0,0,4,34,54,74,94,114,134,154,174,194,214,234,254,274,294,314,334,354,374,394,414,434,524,0,0,0,0,0,0,256,256,306,312,318,320,325,324,319,304,288,275,275,279,294,308,309,310,311,309,302,269,194,104,0,0,0,0,0,0,0,4,89,153,185,262,378,398,413,524,79,79,122,152,162,170,206,210,210,99,23,3,31,13,37,6,23,8,5,15,12,30,70,10,5,30,1;</v>
+      </c>
+      <c r="E25" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" s="16"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H26" s="16"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="16"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="16" t="str">
+        <f>"N"&amp;Бессвинец!A81&amp;Бессвинец!A83&amp;Бессвинец!A85&amp;Бессвинец!A87&amp;Бессвинец!A89&amp;Бессвинец!A91&amp;","&amp;Бессвинец!W1&amp;","&amp;D10&amp;","&amp;B4&amp;","&amp;B5&amp;","&amp;B6&amp;","&amp;D4&amp;","&amp;D5&amp;","&amp;D6&amp;","&amp;F4&amp;","&amp;F5&amp;","&amp;F6&amp;","&amp;D11&amp;","&amp;D12&amp;","&amp;D13&amp;","&amp;D14&amp;","&amp;D15&amp;","&amp;D16&amp;";"</f>
+        <v>N0,10,40,60,80,100,120,140,160,180,200,220,240,260,280,300,320,340,360,380,400,420,440,460,477,613,0,0,0,0,84,84,102,112,122,131,139,146,161,166,172,170,169,197,241,271,302,328,353,377,399,418,427,429,421,50,0,0,0,0,0,4,34,54,74,94,114,134,154,174,194,214,234,254,274,294,314,334,354,374,394,414,434,454,474,494,514,613,0,0,256,256,306,312,318,309,304,300,300,295,290,285,274,286,306,313,314,315,314,313,311,309,307,304,296,256,203,104,0,0,0,4,89,159,212,252,420,462,477,613,79,79,122,148,161,165,224,235,235,99,27,3,31,13,37,6,23,8,5,15,12,30,70,10,5,30,1;</v>
+      </c>
+      <c r="E28" t="s">
+        <v>49</v>
+      </c>
+      <c r="H28" s="16"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H29" s="16"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H30" s="16"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>52</v>
+      </c>
+      <c r="H31" s="16"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="15" t="str">
+        <f>"N"&amp;'Калибровка ПИД'!A81&amp;'Калибровка ПИД'!A83&amp;'Калибровка ПИД'!A85&amp;'Калибровка ПИД'!A87&amp;'Калибровка ПИД'!A89&amp;'Калибровка ПИД'!A91&amp;","&amp;'Калибровка ПИД'!W1&amp;","&amp;D10&amp;","&amp;B4&amp;","&amp;B5&amp;","&amp;B6&amp;","&amp;D4&amp;","&amp;D5&amp;","&amp;D6&amp;","&amp;F4&amp;","&amp;F5&amp;","&amp;F6&amp;","&amp;D11&amp;","&amp;D12&amp;","&amp;D13&amp;","&amp;D14&amp;","&amp;D15&amp;","&amp;D16&amp;";"</f>
+        <v>N0, 60, 90, 91, 120, 121, 122, 123, 124, 125, 185, 215, 216, 276, 306, 307, 367, 397, 398, 428, 429, 459, 460, 490, 491, 521, 522, 622, 0, 0, 100, 100, 100, 450, 450, 450, 450, 450, 450, 100, 100, 100, 100, 100, 100, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 0, 0, 0, 60, 90, 91, 120, 121, 122, 123, 124, 125, 185, 215, 216, 276, 306, 307, 367, 397, 398, 428, 429, 459, 460, 490, 491, 521, 522, 622, 0, 0, 100, 100, 100, 450, 450, 450, 450, 450, 450, 100, 100, 100, 100, 100, 100, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0,27,3,31,13,37,6,23,8,5,15,12,30,70,10,5,30,1;</v>
+      </c>
+      <c r="E32" t="s">
+        <v>49</v>
+      </c>
+      <c r="H32" s="16"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H33" s="16"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>51</v>
+      </c>
+      <c r="H34" s="16"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="15" t="str">
+        <f>"N"&amp;'Калибровка ПИД Шаги'!A81&amp;'Калибровка ПИД Шаги'!A83&amp;'Калибровка ПИД Шаги'!A85&amp;'Калибровка ПИД Шаги'!A87&amp;'Калибровка ПИД Шаги'!A89&amp;'Калибровка ПИД Шаги'!A91&amp;","&amp;'Калибровка ПИД Шаги'!W1&amp;","&amp;D10&amp;","&amp;B4&amp;","&amp;B5&amp;","&amp;B6&amp;","&amp;D4&amp;","&amp;D5&amp;","&amp;D6&amp;","&amp;F4&amp;","&amp;F5&amp;","&amp;F6&amp;","&amp;D11&amp;","&amp;D12&amp;","&amp;D13&amp;","&amp;D14&amp;","&amp;D15&amp;","&amp;D16&amp;";"</f>
+        <v>N0, 60, 90, 91, 151, 181, 182, 242, 272, 273, 333, 363, 364, 424, 454, 455, 515, 545, 546, 576, 577, 607, 608, 638, 639, 669, 670, 770, 0, 0, 100, 100, 100, 150, 150, 150, 150, 150, 150, 200, 200, 200, 200, 200, 200, 250, 250, 250, 250, 250, 200, 200, 150, 150, 0, 0, -50, -150, 0, 0, 0, 60, 90, 91, 151, 181, 182, 242, 272, 273, 333, 363, 364, 424, 454, 455, 515, 545, 546, 576, 577, 607, 608, 638, 639, 669, 670, 770, 0, 0, 100, 100, 100, 150, 150, 150, 150, 150, 150, 200, 200, 200, 200, 200, 200, 250, 250, 250, 250, 250, 200, 200, 150, 150, 100, 100, 50, -50, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0,27,3,31,13,37,6,23,8,5,15,12,30,70,10,5,30,1;</v>
+      </c>
+      <c r="E35" t="s">
+        <v>49</v>
+      </c>
+      <c r="H35" s="16"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H36" s="16"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W93"/>
+  <sheetViews>
+    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F100" sqref="F100"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:23" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>9</v>
       </c>
@@ -4969,7 +8502,7 @@
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
       <c r="E1" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
@@ -4985,18 +8518,24 @@
       </c>
       <c r="N1" s="13"/>
       <c r="O1" s="13"/>
-      <c r="S1" t="s">
+      <c r="S1" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="37">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="E2" s="16" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -5007,7 +8546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="1" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" s="1" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -5063,7 +8602,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -5122,7 +8661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -5187,7 +8726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -5252,7 +8791,7 @@
         <v>0.50588235294117645</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3</v>
       </c>
@@ -5317,7 +8856,7 @@
         <v>0.46875</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>4</v>
       </c>
@@ -5382,7 +8921,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5</v>
       </c>
@@ -5447,7 +8986,7 @@
         <v>0.1038961038961039</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>6</v>
       </c>
@@ -5512,7 +9051,7 @@
         <v>0.31034482758620691</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>7</v>
       </c>
@@ -5577,7 +9116,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>8</v>
       </c>
@@ -5642,7 +9181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>9</v>
       </c>
@@ -5707,7 +9246,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>10</v>
       </c>
@@ -5751,7 +9290,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>11</v>
       </c>
@@ -6445,7 +9984,7 @@
     </row>
     <row r="78" spans="1:15" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="19" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B78" s="18"/>
       <c r="C78" s="18"/>
@@ -6484,8 +10023,8 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" t="str">
-        <f>J5&amp;", "&amp;J6&amp;", "&amp;J7&amp;", "&amp;J8&amp;", "&amp;J9&amp;", "&amp;J10&amp;", "&amp;J11&amp;", "&amp;J12&amp;", "&amp;J13&amp;", "&amp;J14&amp;", "&amp;J15&amp;", "&amp;J16&amp;", "&amp;J17&amp;", "&amp;J18&amp;", "&amp;J19&amp;", "&amp;J20&amp;", "&amp;J21&amp;", "&amp;J22&amp;", "&amp;J23&amp;", "&amp;J24&amp;", "&amp;J25&amp;", "&amp;J26&amp;", "&amp;J27&amp;", "&amp;J28&amp;", "&amp;J29&amp;", "&amp;J30&amp;", "&amp;J31&amp;", "&amp;J32&amp;", "&amp;J33&amp;", "&amp;J34&amp;", "</f>
-        <v xml:space="preserve">0, 10, 40, 60, 80, 100, 120, 140, 160, 180, 200, 220, 240, 260, 280, 300, 320, 340, 360, 380, 400, 413, 481, 524, 0, 0, 0, 0, 0, 0, </v>
+        <f>J5&amp;","&amp;J6&amp;","&amp;J7&amp;","&amp;J8&amp;","&amp;J9&amp;","&amp;J10&amp;","&amp;J11&amp;","&amp;J12&amp;","&amp;J13&amp;","&amp;J14&amp;","&amp;J15&amp;","&amp;J16&amp;","&amp;J17&amp;","&amp;J18&amp;","&amp;J19&amp;","&amp;J20&amp;","&amp;J21&amp;","&amp;J22&amp;","&amp;J23&amp;","&amp;J24&amp;","&amp;J25&amp;","&amp;J26&amp;","&amp;J27&amp;","&amp;J28&amp;","&amp;J29&amp;","&amp;J30&amp;","&amp;J31&amp;","&amp;J32&amp;","&amp;J33&amp;","&amp;J34&amp;","</f>
+        <v>0,10,40,60,80,100,120,140,160,180,200,220,240,260,280,300,320,340,360,380,400,413,481,524,0,0,0,0,0,0,</v>
       </c>
       <c r="M81" s="16"/>
     </row>
@@ -6497,8 +10036,8 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" t="str">
-        <f>K5&amp;", "&amp;K6&amp;", "&amp;K7&amp;", "&amp;K8&amp;", "&amp;K9&amp;", "&amp;K10&amp;", "&amp;K11&amp;", "&amp;K12&amp;", "&amp;K13&amp;", "&amp;K14&amp;", "&amp;K15&amp;", "&amp;K16&amp;", "&amp;K17&amp;", "&amp;K18&amp;", "&amp;K19&amp;", "&amp;K20&amp;", "&amp;K21&amp;", "&amp;K22&amp;", "&amp;K23&amp;", "&amp;K24&amp;", "&amp;K25&amp;", "&amp;K26&amp;", "&amp;K27&amp;", "&amp;K28&amp;", "&amp;K29&amp;", "&amp;K30&amp;", "&amp;K31&amp;", "&amp;K32&amp;", "&amp;K33&amp;", "&amp;K34&amp;", "</f>
-        <v xml:space="preserve">84, 84, 102, 112, 122, 132, 157, 192, 211, 205, 195, 180, 180, 197, 232, 262, 289, 313, 335, 350, 344, 333, 161, 50, 0, 0, 0, 0, 0, 0, </v>
+        <f>K5&amp;","&amp;K6&amp;","&amp;K7&amp;","&amp;K8&amp;","&amp;K9&amp;","&amp;K10&amp;","&amp;K11&amp;","&amp;K12&amp;","&amp;K13&amp;","&amp;K14&amp;","&amp;K15&amp;","&amp;K16&amp;","&amp;K17&amp;","&amp;K18&amp;","&amp;K19&amp;","&amp;K20&amp;","&amp;K21&amp;","&amp;K22&amp;","&amp;K23&amp;","&amp;K24&amp;","&amp;K25&amp;","&amp;K26&amp;","&amp;K27&amp;","&amp;K28&amp;","&amp;K29&amp;","&amp;K30&amp;","&amp;K31&amp;","&amp;K32&amp;","&amp;K33&amp;","&amp;K34&amp;","</f>
+        <v>84,84,102,112,122,132,157,192,211,205,195,180,180,197,232,262,289,313,335,350,344,333,161,50,0,0,0,0,0,0,</v>
       </c>
       <c r="M83" s="16"/>
     </row>
@@ -6510,8 +10049,8 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" t="str">
-        <f>B5&amp;", "&amp;B6&amp;", "&amp;B7&amp;", "&amp;B8&amp;", "&amp;B9&amp;", "&amp;B10&amp;", "&amp;B11&amp;", "&amp;B12&amp;", "&amp;B13&amp;", "&amp;B14&amp;", "&amp;B15&amp;", "&amp;B16&amp;", "&amp;B17&amp;", "&amp;B18&amp;", "&amp;B19&amp;", "&amp;B20&amp;", "&amp;B21&amp;", "&amp;B22&amp;", "&amp;B23&amp;", "&amp;B24&amp;", "&amp;B25&amp;", "&amp;B26&amp;", "&amp;B27&amp;", "&amp;B28&amp;", "&amp;B29&amp;", "&amp;B30&amp;", "&amp;B31&amp;", "&amp;B32&amp;", "&amp;B33&amp;", "&amp;B34&amp;", "</f>
-        <v xml:space="preserve">0, 4, 34, 54, 74, 94, 114, 134, 154, 174, 194, 214, 234, 254, 274, 294, 314, 334, 354, 374, 394, 414, 434, 524, 0, 0, 0, 0, 0, 0, </v>
+        <f>B5&amp;","&amp;B6&amp;","&amp;B7&amp;","&amp;B8&amp;","&amp;B9&amp;","&amp;B10&amp;","&amp;B11&amp;","&amp;B12&amp;","&amp;B13&amp;","&amp;B14&amp;","&amp;B15&amp;","&amp;B16&amp;","&amp;B17&amp;","&amp;B18&amp;","&amp;B19&amp;","&amp;B20&amp;","&amp;B21&amp;","&amp;B22&amp;","&amp;B23&amp;","&amp;B24&amp;","&amp;B25&amp;","&amp;B26&amp;","&amp;B27&amp;","&amp;B28&amp;","&amp;B29&amp;","&amp;B30&amp;","&amp;B31&amp;","&amp;B32&amp;","&amp;B33&amp;","&amp;B34&amp;","</f>
+        <v>0,4,34,54,74,94,114,134,154,174,194,214,234,254,274,294,314,334,354,374,394,414,434,524,0,0,0,0,0,0,</v>
       </c>
       <c r="M85" s="16"/>
     </row>
@@ -6523,8 +10062,8 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" t="str">
-        <f>C5&amp;", "&amp;C6&amp;", "&amp;C7&amp;", "&amp;C8&amp;", "&amp;C9&amp;", "&amp;C10&amp;", "&amp;C11&amp;", "&amp;C12&amp;", "&amp;C13&amp;", "&amp;C14&amp;", "&amp;C15&amp;", "&amp;C16&amp;", "&amp;C17&amp;", "&amp;C18&amp;", "&amp;C19&amp;", "&amp;C20&amp;", "&amp;C21&amp;", "&amp;C22&amp;", "&amp;C23&amp;", "&amp;C24&amp;", "&amp;C25&amp;", "&amp;C26&amp;", "&amp;C27&amp;", "&amp;C28&amp;", "&amp;C29&amp;", "&amp;C30&amp;", "&amp;C31&amp;", "&amp;C32&amp;", "&amp;C33&amp;", "&amp;C34&amp;", "</f>
-        <v xml:space="preserve">256, 256, 306, 312, 318, 320, 325, 324, 319, 304, 288, 275, 275, 279, 294, 308, 309, 310, 311, 309, 302, 269, 194, 104, 0, 0, 0, 0, 0, 0, </v>
+        <f>C5&amp;","&amp;C6&amp;","&amp;C7&amp;","&amp;C8&amp;","&amp;C9&amp;","&amp;C10&amp;","&amp;C11&amp;","&amp;C12&amp;","&amp;C13&amp;","&amp;C14&amp;","&amp;C15&amp;","&amp;C16&amp;","&amp;C17&amp;","&amp;C18&amp;","&amp;C19&amp;","&amp;C20&amp;","&amp;C21&amp;","&amp;C22&amp;","&amp;C23&amp;","&amp;C24&amp;","&amp;C25&amp;","&amp;C26&amp;","&amp;C27&amp;","&amp;C28&amp;","&amp;C29&amp;","&amp;C30&amp;","&amp;C31&amp;","&amp;C32&amp;","&amp;C33&amp;","&amp;C34&amp;","</f>
+        <v>256,256,306,312,318,320,325,324,319,304,288,275,275,279,294,308,309,310,311,309,302,269,194,104,0,0,0,0,0,0,</v>
       </c>
       <c r="M87" s="16"/>
     </row>
@@ -6536,8 +10075,8 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" t="str">
-        <f>R5&amp;", "&amp;R6&amp;", "&amp;R7&amp;", "&amp;R8&amp;", "&amp;R9&amp;", "&amp;R10&amp;", "&amp;R11&amp;", "&amp;R12&amp;", "&amp;R13&amp;", "&amp;R14&amp;", "</f>
-        <v xml:space="preserve">0, 4, 89, 153, 185, 262, 378, 398, 413, 524, </v>
+        <f>R5&amp;","&amp;R6&amp;","&amp;R7&amp;","&amp;R8&amp;","&amp;R9&amp;","&amp;R10&amp;","&amp;R11&amp;","&amp;R12&amp;","&amp;R13&amp;","&amp;R14&amp;","</f>
+        <v>0,4,89,153,185,262,378,398,413,524,</v>
       </c>
       <c r="M89" s="16"/>
     </row>
@@ -6549,8 +10088,8 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" t="str">
-        <f>S5&amp;", "&amp;S6&amp;", "&amp;S7&amp;", "&amp;S8&amp;", "&amp;S9&amp;", "&amp;S10&amp;", "&amp;S11&amp;", "&amp;S12&amp;", "&amp;S13&amp;", "&amp;S14</f>
-        <v>79, 79, 122, 152, 162, 170, 206, 210, 210, 99</v>
+        <f>S5&amp;","&amp;S6&amp;","&amp;S7&amp;","&amp;S8&amp;","&amp;S9&amp;","&amp;S10&amp;","&amp;S11&amp;","&amp;S12&amp;","&amp;S13&amp;","&amp;S14</f>
+        <v>79,79,122,152,162,170,206,210,210,99</v>
       </c>
       <c r="M91" s="16"/>
     </row>
@@ -6579,17 +10118,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V93"/>
+  <dimension ref="A1:W96"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U29" sqref="U29"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>20</v>
       </c>
@@ -6597,7 +10136,7 @@
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
       <c r="E1" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
@@ -6613,15 +10152,24 @@
       </c>
       <c r="N1" s="13"/>
       <c r="O1" s="13"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="S1" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="37">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="E2" s="16" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -6632,7 +10180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -6688,7 +10236,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -6747,7 +10295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -6812,7 +10360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -6877,7 +10425,7 @@
         <v>0.50588235294117645</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3</v>
       </c>
@@ -6942,7 +10490,7 @@
         <v>0.37142857142857144</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>4</v>
       </c>
@@ -7007,7 +10555,7 @@
         <v>0.24528301886792453</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5</v>
       </c>
@@ -7072,7 +10620,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>6</v>
       </c>
@@ -7137,7 +10685,7 @@
         <v>0.35119047619047616</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>7</v>
       </c>
@@ -7202,7 +10750,7 @@
         <v>0.26190476190476192</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>8</v>
       </c>
@@ -7267,7 +10815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>9</v>
       </c>
@@ -7332,7 +10880,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>10</v>
       </c>
@@ -7376,7 +10924,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>11</v>
       </c>
@@ -8196,7 +11744,7 @@
     </row>
     <row r="78" spans="1:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="19" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B78" s="18"/>
       <c r="C78" s="18"/>
@@ -8234,8 +11782,8 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" t="str">
-        <f>J5&amp;", "&amp;J6&amp;", "&amp;J7&amp;", "&amp;J8&amp;", "&amp;J9&amp;", "&amp;J10&amp;", "&amp;J11&amp;", "&amp;J12&amp;", "&amp;J13&amp;", "&amp;J14&amp;", "&amp;J15&amp;", "&amp;J16&amp;", "&amp;J17&amp;", "&amp;J18&amp;", "&amp;J19&amp;", "&amp;J20&amp;", "&amp;J21&amp;", "&amp;J22&amp;", "&amp;J23&amp;", "&amp;J24&amp;", "&amp;J25&amp;", "&amp;J26&amp;", "&amp;J27&amp;", "&amp;J28&amp;", "&amp;J29&amp;", "&amp;J30&amp;", "&amp;J31&amp;", "&amp;J32&amp;", "&amp;J33&amp;", "&amp;J34&amp;", "</f>
-        <v xml:space="preserve">0, 10, 40, 60, 80, 100, 120, 140, 160, 180, 200, 220, 240, 260, 280, 300, 320, 340, 360, 380, 400, 420, 440, 460, 477, 613, 0, 0, 0, 0, </v>
+        <f>J5&amp;","&amp;J6&amp;","&amp;J7&amp;","&amp;J8&amp;","&amp;J9&amp;","&amp;J10&amp;","&amp;J11&amp;","&amp;J12&amp;","&amp;J13&amp;","&amp;J14&amp;","&amp;J15&amp;","&amp;J16&amp;","&amp;J17&amp;","&amp;J18&amp;","&amp;J19&amp;","&amp;J20&amp;","&amp;J21&amp;","&amp;J22&amp;","&amp;J23&amp;","&amp;J24&amp;","&amp;J25&amp;","&amp;J26&amp;","&amp;J27&amp;","&amp;J28&amp;","&amp;J29&amp;","&amp;J30&amp;","&amp;J31&amp;","&amp;J32&amp;","&amp;J33&amp;","&amp;J34&amp;","</f>
+        <v>0,10,40,60,80,100,120,140,160,180,200,220,240,260,280,300,320,340,360,380,400,420,440,460,477,613,0,0,0,0,</v>
       </c>
       <c r="M81" s="16"/>
     </row>
@@ -8247,8 +11795,8 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="str">
-        <f>K5&amp;", "&amp;K6&amp;", "&amp;K7&amp;", "&amp;K8&amp;", "&amp;K9&amp;", "&amp;K10&amp;", "&amp;K11&amp;", "&amp;K12&amp;", "&amp;K13&amp;", "&amp;K14&amp;", "&amp;K15&amp;", "&amp;K16&amp;", "&amp;K17&amp;", "&amp;K18&amp;", "&amp;K19&amp;", "&amp;K20&amp;", "&amp;K21&amp;", "&amp;K22&amp;", "&amp;K23&amp;", "&amp;K24&amp;", "&amp;K25&amp;", "&amp;K26&amp;", "&amp;K27&amp;", "&amp;K28&amp;", "&amp;K29&amp;", "&amp;K30&amp;", "&amp;K31&amp;", "&amp;K32&amp;", "&amp;K33&amp;", "&amp;K34&amp;", "</f>
-        <v xml:space="preserve">84, 84, 102, 112, 122, 131, 139, 146, 161, 166, 172, 170, 169, 197, 241, 271, 302, 328, 353, 377, 399, 418, 427, 429, 421, 50, 0, 0, 0, 0, </v>
+        <f>K5&amp;","&amp;K6&amp;","&amp;K7&amp;","&amp;K8&amp;","&amp;K9&amp;","&amp;K10&amp;","&amp;K11&amp;","&amp;K12&amp;","&amp;K13&amp;","&amp;K14&amp;","&amp;K15&amp;","&amp;K16&amp;","&amp;K17&amp;","&amp;K18&amp;","&amp;K19&amp;","&amp;K20&amp;","&amp;K21&amp;","&amp;K22&amp;","&amp;K23&amp;","&amp;K24&amp;","&amp;K25&amp;","&amp;K26&amp;","&amp;K27&amp;","&amp;K28&amp;","&amp;K29&amp;","&amp;K30&amp;","&amp;K31&amp;","&amp;K32&amp;","&amp;K33&amp;","&amp;K34&amp;","</f>
+        <v>84,84,102,112,122,131,139,146,161,166,172,170,169,197,241,271,302,328,353,377,399,418,427,429,421,50,0,0,0,0,</v>
       </c>
       <c r="M83" s="16"/>
     </row>
@@ -8260,8 +11808,8 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" t="str">
-        <f>B5&amp;", "&amp;B6&amp;", "&amp;B7&amp;", "&amp;B8&amp;", "&amp;B9&amp;", "&amp;B10&amp;", "&amp;B11&amp;", "&amp;B12&amp;", "&amp;B13&amp;", "&amp;B14&amp;", "&amp;B15&amp;", "&amp;B16&amp;", "&amp;B17&amp;", "&amp;B18&amp;", "&amp;B19&amp;", "&amp;B20&amp;", "&amp;B21&amp;", "&amp;B22&amp;", "&amp;B23&amp;", "&amp;B24&amp;", "&amp;B25&amp;", "&amp;B26&amp;", "&amp;B27&amp;", "&amp;B28&amp;", "&amp;B29&amp;", "&amp;B30&amp;", "&amp;B31&amp;", "&amp;B32&amp;", "&amp;B33&amp;", "&amp;B34&amp;", "</f>
-        <v xml:space="preserve">0, 4, 34, 54, 74, 94, 114, 134, 154, 174, 194, 214, 234, 254, 274, 294, 314, 334, 354, 374, 394, 414, 434, 454, 474, 494, 514, 613, 0, 0, </v>
+        <f>B5&amp;","&amp;B6&amp;","&amp;B7&amp;","&amp;B8&amp;","&amp;B9&amp;","&amp;B10&amp;","&amp;B11&amp;","&amp;B12&amp;","&amp;B13&amp;","&amp;B14&amp;","&amp;B15&amp;","&amp;B16&amp;","&amp;B17&amp;","&amp;B18&amp;","&amp;B19&amp;","&amp;B20&amp;","&amp;B21&amp;","&amp;B22&amp;","&amp;B23&amp;","&amp;B24&amp;","&amp;B25&amp;","&amp;B26&amp;","&amp;B27&amp;","&amp;B28&amp;","&amp;B29&amp;","&amp;B30&amp;","&amp;B31&amp;","&amp;B32&amp;","&amp;B33&amp;","&amp;B34&amp;","</f>
+        <v>0,4,34,54,74,94,114,134,154,174,194,214,234,254,274,294,314,334,354,374,394,414,434,454,474,494,514,613,0,0,</v>
       </c>
       <c r="M85" s="16"/>
     </row>
@@ -8273,8 +11821,8 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" t="str">
-        <f>C5&amp;", "&amp;C6&amp;", "&amp;C7&amp;", "&amp;C8&amp;", "&amp;C9&amp;", "&amp;C10&amp;", "&amp;C11&amp;", "&amp;C12&amp;", "&amp;C13&amp;", "&amp;C14&amp;", "&amp;C15&amp;", "&amp;C16&amp;", "&amp;C17&amp;", "&amp;C18&amp;", "&amp;C19&amp;", "&amp;C20&amp;", "&amp;C21&amp;", "&amp;C22&amp;", "&amp;C23&amp;", "&amp;C24&amp;", "&amp;C25&amp;", "&amp;C26&amp;", "&amp;C27&amp;", "&amp;C28&amp;", "&amp;C29&amp;", "&amp;C30&amp;", "&amp;C31&amp;", "&amp;C32&amp;", "&amp;C33&amp;", "&amp;C34&amp;", "</f>
-        <v xml:space="preserve">256, 256, 306, 312, 318, 309, 304, 300, 300, 295, 290, 285, 274, 286, 306, 313, 314, 315, 314, 313, 311, 309, 307, 304, 296, 256, 203, 104, 0, 0, </v>
+        <f>C5&amp;","&amp;C6&amp;","&amp;C7&amp;","&amp;C8&amp;","&amp;C9&amp;","&amp;C10&amp;","&amp;C11&amp;","&amp;C12&amp;","&amp;C13&amp;","&amp;C14&amp;","&amp;C15&amp;","&amp;C16&amp;","&amp;C17&amp;","&amp;C18&amp;","&amp;C19&amp;","&amp;C20&amp;","&amp;C21&amp;","&amp;C22&amp;","&amp;C23&amp;","&amp;C24&amp;","&amp;C25&amp;","&amp;C26&amp;","&amp;C27&amp;","&amp;C28&amp;","&amp;C29&amp;","&amp;C30&amp;","&amp;C31&amp;","&amp;C32&amp;","&amp;C33&amp;","&amp;C34&amp;","</f>
+        <v>256,256,306,312,318,309,304,300,300,295,290,285,274,286,306,313,314,315,314,313,311,309,307,304,296,256,203,104,0,0,</v>
       </c>
       <c r="M87" s="16"/>
     </row>
@@ -8286,8 +11834,8 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" t="str">
-        <f>R5&amp;", "&amp;R6&amp;", "&amp;R7&amp;", "&amp;R8&amp;", "&amp;R9&amp;", "&amp;R10&amp;", "&amp;R11&amp;", "&amp;R12&amp;", "&amp;R13&amp;", "&amp;R14&amp;", "</f>
-        <v xml:space="preserve">0, 4, 89, 159, 212, 252, 420, 462, 477, 613, </v>
+        <f>R5&amp;","&amp;R6&amp;","&amp;R7&amp;","&amp;R8&amp;","&amp;R9&amp;","&amp;R10&amp;","&amp;R11&amp;","&amp;R12&amp;","&amp;R13&amp;","&amp;R14&amp;","</f>
+        <v>0,4,89,159,212,252,420,462,477,613,</v>
       </c>
       <c r="M89" s="16"/>
     </row>
@@ -8299,8 +11847,8 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" t="str">
-        <f>S5&amp;", "&amp;S6&amp;", "&amp;S7&amp;", "&amp;S8&amp;", "&amp;S9&amp;", "&amp;S10&amp;", "&amp;S11&amp;", "&amp;S12&amp;", "&amp;S13&amp;", "&amp;S14</f>
-        <v>79, 79, 122, 148, 161, 165, 224, 235, 235, 99</v>
+        <f>S5&amp;","&amp;S6&amp;","&amp;S7&amp;","&amp;S8&amp;","&amp;S9&amp;","&amp;S10&amp;","&amp;S11&amp;","&amp;S12&amp;","&amp;S13&amp;","&amp;S14</f>
+        <v>79,79,122,148,161,165,224,235,235,99</v>
       </c>
       <c r="M91" s="16"/>
     </row>
@@ -8322,6 +11870,20 @@
       <c r="L93" s="16"/>
       <c r="M93" s="16"/>
     </row>
+    <row r="96" spans="1:13" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="40"/>
+      <c r="C96" s="40"/>
+      <c r="D96" s="40"/>
+      <c r="E96" s="40"/>
+      <c r="F96" s="40"/>
+      <c r="G96" s="40"/>
+      <c r="H96" s="40"/>
+      <c r="I96" s="40"/>
+      <c r="J96" s="40"/>
+      <c r="K96" s="40"/>
+      <c r="L96" s="40"/>
+      <c r="M96" s="40"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8329,17 +11891,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V93"/>
+  <dimension ref="A1:W93"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80:A91"/>
+      <selection activeCell="S1" sqref="S1:W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>20</v>
       </c>
@@ -8347,7 +11909,7 @@
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
       <c r="E1" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
@@ -8363,15 +11925,24 @@
       </c>
       <c r="N1" s="13"/>
       <c r="O1" s="13"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="S1" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="37">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="E2" s="16" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -8382,7 +11953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -8438,7 +12009,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -8497,7 +12068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -8562,7 +12133,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -8627,7 +12198,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3</v>
       </c>
@@ -8692,7 +12263,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>4</v>
       </c>
@@ -8757,7 +12328,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5</v>
       </c>
@@ -8822,7 +12393,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>6</v>
       </c>
@@ -8887,7 +12458,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>7</v>
       </c>
@@ -8952,7 +12523,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>8</v>
       </c>
@@ -9017,7 +12588,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>9</v>
       </c>
@@ -9082,7 +12653,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>10</v>
       </c>
@@ -9126,7 +12697,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>11</v>
       </c>
@@ -10077,4 +13648,3530 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W93"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:23" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="S1" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="37">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="E2" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7">
+        <v>100</v>
+      </c>
+      <c r="D5" s="3">
+        <f>A5:A26</f>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>100</v>
+      </c>
+      <c r="L5" s="3">
+        <f>I5:I26</f>
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0</v>
+      </c>
+      <c r="T5" s="3">
+        <f>Q5:Q14</f>
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="8">
+        <f t="shared" ref="B6:B32" si="0">B5+D6</f>
+        <v>60</v>
+      </c>
+      <c r="C6" s="8">
+        <f t="shared" ref="C6:C32" si="1">C5+E6</f>
+        <v>100</v>
+      </c>
+      <c r="D6" s="2">
+        <v>60</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" ref="F6:F32" si="2">E6/D6</f>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="9">
+        <f t="shared" ref="J6:J32" si="3">J5+L6</f>
+        <v>60</v>
+      </c>
+      <c r="K6" s="9">
+        <f t="shared" ref="K6:K32" si="4">K5+M6</f>
+        <v>100</v>
+      </c>
+      <c r="L6" s="2">
+        <v>60</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="5">
+        <f t="shared" ref="N6:N30" si="5">M6/L6</f>
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6" s="9">
+        <f t="shared" ref="R6:R14" si="6">R5+T6</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="9">
+        <f t="shared" ref="S6:S14" si="7">S5+U6</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0</v>
+      </c>
+      <c r="V6" s="5" t="e">
+        <f t="shared" ref="V6:V14" si="8">U6/T6</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" s="8">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="C7" s="8">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="D7" s="2">
+        <v>30</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7" s="9">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="K7" s="9">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="L7" s="2">
+        <v>30</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>2</v>
+      </c>
+      <c r="R7" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S7" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="2">
+        <v>0</v>
+      </c>
+      <c r="U7" s="2">
+        <v>0</v>
+      </c>
+      <c r="V7" s="5" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" s="8">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="C8" s="8">
+        <f t="shared" si="1"/>
+        <v>450</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>350</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8" s="9">
+        <f t="shared" si="3"/>
+        <v>91</v>
+      </c>
+      <c r="K8" s="9">
+        <f t="shared" si="4"/>
+        <v>450</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1</v>
+      </c>
+      <c r="M8" s="2">
+        <v>350</v>
+      </c>
+      <c r="N8" s="5">
+        <f t="shared" si="5"/>
+        <v>350</v>
+      </c>
+      <c r="Q8">
+        <v>3</v>
+      </c>
+      <c r="R8" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S8" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T8" s="2">
+        <v>0</v>
+      </c>
+      <c r="U8" s="2">
+        <v>0</v>
+      </c>
+      <c r="V8" s="5" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" s="8">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="C9" s="8">
+        <f t="shared" si="1"/>
+        <v>450</v>
+      </c>
+      <c r="D9" s="2">
+        <v>29</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9" s="9">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="K9" s="9">
+        <f t="shared" si="4"/>
+        <v>450</v>
+      </c>
+      <c r="L9" s="2">
+        <v>29</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>4</v>
+      </c>
+      <c r="R9" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S9" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T9" s="2">
+        <v>0</v>
+      </c>
+      <c r="U9" s="2">
+        <v>0</v>
+      </c>
+      <c r="V9" s="5" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" s="8">
+        <f t="shared" si="0"/>
+        <v>121</v>
+      </c>
+      <c r="C10" s="8">
+        <f t="shared" si="1"/>
+        <v>450</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10" s="9">
+        <f t="shared" si="3"/>
+        <v>121</v>
+      </c>
+      <c r="K10" s="9">
+        <f t="shared" si="4"/>
+        <v>450</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>5</v>
+      </c>
+      <c r="R10" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S10" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="2">
+        <v>0</v>
+      </c>
+      <c r="U10" s="2">
+        <v>0</v>
+      </c>
+      <c r="V10" s="5" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11" s="8">
+        <f t="shared" si="0"/>
+        <v>122</v>
+      </c>
+      <c r="C11" s="8">
+        <f t="shared" si="1"/>
+        <v>450</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>6</v>
+      </c>
+      <c r="J11" s="9">
+        <f t="shared" si="3"/>
+        <v>122</v>
+      </c>
+      <c r="K11" s="9">
+        <f t="shared" si="4"/>
+        <v>450</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>6</v>
+      </c>
+      <c r="R11" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="2">
+        <v>0</v>
+      </c>
+      <c r="U11" s="2">
+        <v>0</v>
+      </c>
+      <c r="V11" s="5" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12" s="8">
+        <f t="shared" si="0"/>
+        <v>123</v>
+      </c>
+      <c r="C12" s="8">
+        <f t="shared" si="1"/>
+        <v>450</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>7</v>
+      </c>
+      <c r="J12" s="9">
+        <f t="shared" si="3"/>
+        <v>123</v>
+      </c>
+      <c r="K12" s="9">
+        <f t="shared" si="4"/>
+        <v>450</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>7</v>
+      </c>
+      <c r="R12" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S12" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="2">
+        <v>0</v>
+      </c>
+      <c r="U12" s="2">
+        <v>0</v>
+      </c>
+      <c r="V12" s="5" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13" s="8">
+        <f t="shared" si="0"/>
+        <v>124</v>
+      </c>
+      <c r="C13" s="8">
+        <f t="shared" si="1"/>
+        <v>450</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>8</v>
+      </c>
+      <c r="J13" s="9">
+        <f t="shared" si="3"/>
+        <v>124</v>
+      </c>
+      <c r="K13" s="9">
+        <f t="shared" si="4"/>
+        <v>450</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>8</v>
+      </c>
+      <c r="R13" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="2">
+        <v>0</v>
+      </c>
+      <c r="U13" s="2">
+        <v>0</v>
+      </c>
+      <c r="V13" s="5" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>9</v>
+      </c>
+      <c r="B14" s="8">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="C14" s="8">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>-350</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="2"/>
+        <v>-350</v>
+      </c>
+      <c r="I14">
+        <v>9</v>
+      </c>
+      <c r="J14" s="9">
+        <f t="shared" si="3"/>
+        <v>125</v>
+      </c>
+      <c r="K14" s="9">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1</v>
+      </c>
+      <c r="M14" s="2">
+        <v>-350</v>
+      </c>
+      <c r="N14" s="5">
+        <f t="shared" si="5"/>
+        <v>-350</v>
+      </c>
+      <c r="Q14">
+        <v>9</v>
+      </c>
+      <c r="R14" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="2">
+        <v>0</v>
+      </c>
+      <c r="U14" s="2">
+        <v>0</v>
+      </c>
+      <c r="V14" s="5" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15" s="8">
+        <f t="shared" si="0"/>
+        <v>185</v>
+      </c>
+      <c r="C15" s="8">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="D15" s="2">
+        <v>60</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>10</v>
+      </c>
+      <c r="J15" s="9">
+        <f t="shared" si="3"/>
+        <v>185</v>
+      </c>
+      <c r="K15" s="9">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="L15" s="2">
+        <v>60</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>11</v>
+      </c>
+      <c r="B16" s="8">
+        <f t="shared" si="0"/>
+        <v>215</v>
+      </c>
+      <c r="C16" s="8">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="D16" s="2">
+        <v>30</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>11</v>
+      </c>
+      <c r="J16" s="9">
+        <f t="shared" si="3"/>
+        <v>215</v>
+      </c>
+      <c r="K16" s="9">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="L16" s="2">
+        <v>30</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0</v>
+      </c>
+      <c r="N16" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>12</v>
+      </c>
+      <c r="B17" s="8">
+        <f t="shared" si="0"/>
+        <v>216</v>
+      </c>
+      <c r="C17" s="8">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>12</v>
+      </c>
+      <c r="J17" s="9">
+        <f t="shared" si="3"/>
+        <v>216</v>
+      </c>
+      <c r="K17" s="9">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="L17" s="2">
+        <v>1</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0</v>
+      </c>
+      <c r="N17" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>13</v>
+      </c>
+      <c r="B18" s="8">
+        <f t="shared" si="0"/>
+        <v>276</v>
+      </c>
+      <c r="C18" s="8">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="D18" s="2">
+        <v>60</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>13</v>
+      </c>
+      <c r="J18" s="9">
+        <f t="shared" si="3"/>
+        <v>276</v>
+      </c>
+      <c r="K18" s="9">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="L18" s="2">
+        <v>60</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0</v>
+      </c>
+      <c r="N18" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>14</v>
+      </c>
+      <c r="B19" s="8">
+        <f t="shared" si="0"/>
+        <v>306</v>
+      </c>
+      <c r="C19" s="8">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="D19" s="2">
+        <v>30</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>14</v>
+      </c>
+      <c r="J19" s="9">
+        <f t="shared" si="3"/>
+        <v>306</v>
+      </c>
+      <c r="K19" s="9">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="L19" s="2">
+        <v>30</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0</v>
+      </c>
+      <c r="N19" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>15</v>
+      </c>
+      <c r="B20" s="8">
+        <f t="shared" si="0"/>
+        <v>307</v>
+      </c>
+      <c r="C20" s="8">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
+        <v>50</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="I20">
+        <v>15</v>
+      </c>
+      <c r="J20" s="9">
+        <f t="shared" si="3"/>
+        <v>307</v>
+      </c>
+      <c r="K20" s="9">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="L20" s="2">
+        <v>1</v>
+      </c>
+      <c r="M20" s="2">
+        <v>50</v>
+      </c>
+      <c r="N20" s="5">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>16</v>
+      </c>
+      <c r="B21" s="8">
+        <f t="shared" si="0"/>
+        <v>367</v>
+      </c>
+      <c r="C21" s="8">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="D21" s="2">
+        <v>60</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>16</v>
+      </c>
+      <c r="J21" s="9">
+        <f t="shared" si="3"/>
+        <v>367</v>
+      </c>
+      <c r="K21" s="9">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="L21" s="2">
+        <v>60</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0</v>
+      </c>
+      <c r="N21" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>17</v>
+      </c>
+      <c r="B22" s="8">
+        <f t="shared" si="0"/>
+        <v>397</v>
+      </c>
+      <c r="C22" s="8">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="D22" s="2">
+        <v>30</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>17</v>
+      </c>
+      <c r="J22" s="9">
+        <f t="shared" si="3"/>
+        <v>397</v>
+      </c>
+      <c r="K22" s="9">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="L22" s="2">
+        <v>30</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0</v>
+      </c>
+      <c r="N22" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>18</v>
+      </c>
+      <c r="B23" s="8">
+        <f t="shared" si="0"/>
+        <v>398</v>
+      </c>
+      <c r="C23" s="8">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>18</v>
+      </c>
+      <c r="J23" s="9">
+        <f t="shared" si="3"/>
+        <v>398</v>
+      </c>
+      <c r="K23" s="9">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="L23" s="2">
+        <v>1</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0</v>
+      </c>
+      <c r="N23" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>19</v>
+      </c>
+      <c r="B24" s="8">
+        <f t="shared" si="0"/>
+        <v>428</v>
+      </c>
+      <c r="C24" s="8">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="D24" s="2">
+        <v>30</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>19</v>
+      </c>
+      <c r="J24" s="9">
+        <f t="shared" si="3"/>
+        <v>428</v>
+      </c>
+      <c r="K24" s="9">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="L24" s="2">
+        <v>30</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0</v>
+      </c>
+      <c r="N24" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>20</v>
+      </c>
+      <c r="B25" s="8">
+        <f t="shared" si="0"/>
+        <v>429</v>
+      </c>
+      <c r="C25" s="8">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>20</v>
+      </c>
+      <c r="J25" s="9">
+        <f t="shared" si="3"/>
+        <v>429</v>
+      </c>
+      <c r="K25" s="9">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="L25" s="2">
+        <v>1</v>
+      </c>
+      <c r="M25" s="2">
+        <v>0</v>
+      </c>
+      <c r="N25" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>21</v>
+      </c>
+      <c r="B26" s="8">
+        <f t="shared" si="0"/>
+        <v>459</v>
+      </c>
+      <c r="C26" s="8">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="D26" s="2">
+        <v>30</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>21</v>
+      </c>
+      <c r="J26" s="9">
+        <f t="shared" si="3"/>
+        <v>459</v>
+      </c>
+      <c r="K26" s="9">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="L26" s="2">
+        <v>30</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0</v>
+      </c>
+      <c r="N26" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>22</v>
+      </c>
+      <c r="B27" s="8">
+        <f t="shared" si="0"/>
+        <v>460</v>
+      </c>
+      <c r="C27" s="8">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>22</v>
+      </c>
+      <c r="J27" s="9">
+        <f t="shared" si="3"/>
+        <v>460</v>
+      </c>
+      <c r="K27" s="9">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="L27" s="2">
+        <v>1</v>
+      </c>
+      <c r="M27" s="2">
+        <v>0</v>
+      </c>
+      <c r="N27" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>23</v>
+      </c>
+      <c r="B28" s="8">
+        <f t="shared" si="0"/>
+        <v>490</v>
+      </c>
+      <c r="C28" s="8">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="D28" s="2">
+        <v>30</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>23</v>
+      </c>
+      <c r="J28" s="9">
+        <f t="shared" si="3"/>
+        <v>490</v>
+      </c>
+      <c r="K28" s="9">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="L28" s="2">
+        <v>30</v>
+      </c>
+      <c r="M28" s="2">
+        <v>0</v>
+      </c>
+      <c r="N28" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>24</v>
+      </c>
+      <c r="B29" s="8">
+        <f t="shared" si="0"/>
+        <v>491</v>
+      </c>
+      <c r="C29" s="8">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0</v>
+      </c>
+      <c r="F29" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>24</v>
+      </c>
+      <c r="J29" s="9">
+        <f t="shared" si="3"/>
+        <v>491</v>
+      </c>
+      <c r="K29" s="9">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="L29" s="2">
+        <v>1</v>
+      </c>
+      <c r="M29" s="2">
+        <v>0</v>
+      </c>
+      <c r="N29" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>25</v>
+      </c>
+      <c r="B30" s="8">
+        <f t="shared" si="0"/>
+        <v>521</v>
+      </c>
+      <c r="C30" s="8">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="D30" s="2">
+        <v>30</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+      <c r="F30" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>25</v>
+      </c>
+      <c r="J30" s="9">
+        <f t="shared" si="3"/>
+        <v>521</v>
+      </c>
+      <c r="K30" s="9">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="L30" s="2">
+        <v>30</v>
+      </c>
+      <c r="M30" s="2">
+        <v>0</v>
+      </c>
+      <c r="N30" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>26</v>
+      </c>
+      <c r="B31" s="8">
+        <f t="shared" si="0"/>
+        <v>522</v>
+      </c>
+      <c r="C31" s="8">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>26</v>
+      </c>
+      <c r="J31" s="9">
+        <f t="shared" si="3"/>
+        <v>522</v>
+      </c>
+      <c r="K31" s="9">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="L31" s="2">
+        <v>1</v>
+      </c>
+      <c r="M31" s="2">
+        <v>0</v>
+      </c>
+      <c r="N31" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>27</v>
+      </c>
+      <c r="B32" s="8">
+        <f t="shared" si="0"/>
+        <v>622</v>
+      </c>
+      <c r="C32" s="8">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="D32" s="2">
+        <v>100</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0</v>
+      </c>
+      <c r="F32" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>27</v>
+      </c>
+      <c r="J32" s="9">
+        <f t="shared" si="3"/>
+        <v>622</v>
+      </c>
+      <c r="K32" s="9">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="L32" s="2">
+        <v>100</v>
+      </c>
+      <c r="M32" s="2">
+        <v>0</v>
+      </c>
+      <c r="N32" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>28</v>
+      </c>
+      <c r="B33" s="8">
+        <v>0</v>
+      </c>
+      <c r="C33" s="8">
+        <v>0</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
+      <c r="F33" s="15">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>28</v>
+      </c>
+      <c r="J33" s="9">
+        <v>0</v>
+      </c>
+      <c r="K33" s="9">
+        <v>0</v>
+      </c>
+      <c r="L33" s="2">
+        <v>0</v>
+      </c>
+      <c r="M33" s="2">
+        <v>0</v>
+      </c>
+      <c r="N33" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>29</v>
+      </c>
+      <c r="B34" s="8">
+        <v>0</v>
+      </c>
+      <c r="C34" s="8">
+        <v>0</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+      <c r="F34" s="15">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>29</v>
+      </c>
+      <c r="J34" s="9">
+        <v>0</v>
+      </c>
+      <c r="K34" s="9">
+        <v>0</v>
+      </c>
+      <c r="L34" s="2">
+        <v>0</v>
+      </c>
+      <c r="M34" s="2">
+        <v>0</v>
+      </c>
+      <c r="N34" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B78" s="18"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="18"/>
+      <c r="G78" s="18"/>
+      <c r="H78" s="18"/>
+      <c r="I78" s="18"/>
+      <c r="J78" s="18"/>
+      <c r="K78" s="18"/>
+      <c r="L78" s="18"/>
+      <c r="M78" s="18"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A79" s="16"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="16"/>
+      <c r="H79" s="16"/>
+      <c r="I79" s="16"/>
+      <c r="J79" s="16"/>
+      <c r="K79" s="16"/>
+      <c r="L79" s="16"/>
+      <c r="M79" s="16"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>13</v>
+      </c>
+      <c r="M80" s="16"/>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A81" t="str">
+        <f>J5&amp;", "&amp;J6&amp;", "&amp;J7&amp;", "&amp;J8&amp;", "&amp;J9&amp;", "&amp;J10&amp;", "&amp;J11&amp;", "&amp;J12&amp;", "&amp;J13&amp;", "&amp;J14&amp;", "&amp;J15&amp;", "&amp;J16&amp;", "&amp;J17&amp;", "&amp;J18&amp;", "&amp;J19&amp;", "&amp;J20&amp;", "&amp;J21&amp;", "&amp;J22&amp;", "&amp;J23&amp;", "&amp;J24&amp;", "&amp;J25&amp;", "&amp;J26&amp;", "&amp;J27&amp;", "&amp;J28&amp;", "&amp;J29&amp;", "&amp;J30&amp;", "&amp;J31&amp;", "&amp;J32&amp;", "&amp;J33&amp;", "&amp;J34&amp;", "</f>
+        <v xml:space="preserve">0, 60, 90, 91, 120, 121, 122, 123, 124, 125, 185, 215, 216, 276, 306, 307, 367, 397, 398, 428, 429, 459, 460, 490, 491, 521, 522, 622, 0, 0, </v>
+      </c>
+      <c r="M81" s="16"/>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>12</v>
+      </c>
+      <c r="M82" s="16"/>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A83" s="6" t="str">
+        <f>K5&amp;", "&amp;K6&amp;", "&amp;K7&amp;", "&amp;K8&amp;", "&amp;K9&amp;", "&amp;K10&amp;", "&amp;K11&amp;", "&amp;K12&amp;", "&amp;K13&amp;", "&amp;K14&amp;", "&amp;K15&amp;", "&amp;K16&amp;", "&amp;K17&amp;", "&amp;K18&amp;", "&amp;K19&amp;", "&amp;K20&amp;", "&amp;K21&amp;", "&amp;K22&amp;", "&amp;K23&amp;", "&amp;K24&amp;", "&amp;K25&amp;", "&amp;K26&amp;", "&amp;K27&amp;", "&amp;K28&amp;", "&amp;K29&amp;", "&amp;K30&amp;", "&amp;K31&amp;", "&amp;K32&amp;", "&amp;K33&amp;", "&amp;K34&amp;", "</f>
+        <v xml:space="preserve">100, 100, 100, 450, 450, 450, 450, 450, 450, 100, 100, 100, 100, 100, 100, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 0, 0, </v>
+      </c>
+      <c r="M83" s="16"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>15</v>
+      </c>
+      <c r="M84" s="16"/>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A85" t="str">
+        <f>B5&amp;", "&amp;B6&amp;", "&amp;B7&amp;", "&amp;B8&amp;", "&amp;B9&amp;", "&amp;B10&amp;", "&amp;B11&amp;", "&amp;B12&amp;", "&amp;B13&amp;", "&amp;B14&amp;", "&amp;B15&amp;", "&amp;B16&amp;", "&amp;B17&amp;", "&amp;B18&amp;", "&amp;B19&amp;", "&amp;B20&amp;", "&amp;B21&amp;", "&amp;B22&amp;", "&amp;B23&amp;", "&amp;B24&amp;", "&amp;B25&amp;", "&amp;B26&amp;", "&amp;B27&amp;", "&amp;B28&amp;", "&amp;B29&amp;", "&amp;B30&amp;", "&amp;B31&amp;", "&amp;B32&amp;", "&amp;B33&amp;", "&amp;B34&amp;", "</f>
+        <v xml:space="preserve">0, 60, 90, 91, 120, 121, 122, 123, 124, 125, 185, 215, 216, 276, 306, 307, 367, 397, 398, 428, 429, 459, 460, 490, 491, 521, 522, 622, 0, 0, </v>
+      </c>
+      <c r="M85" s="16"/>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>14</v>
+      </c>
+      <c r="M86" s="16"/>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A87" t="str">
+        <f>C5&amp;", "&amp;C6&amp;", "&amp;C7&amp;", "&amp;C8&amp;", "&amp;C9&amp;", "&amp;C10&amp;", "&amp;C11&amp;", "&amp;C12&amp;", "&amp;C13&amp;", "&amp;C14&amp;", "&amp;C15&amp;", "&amp;C16&amp;", "&amp;C17&amp;", "&amp;C18&amp;", "&amp;C19&amp;", "&amp;C20&amp;", "&amp;C21&amp;", "&amp;C22&amp;", "&amp;C23&amp;", "&amp;C24&amp;", "&amp;C25&amp;", "&amp;C26&amp;", "&amp;C27&amp;", "&amp;C28&amp;", "&amp;C29&amp;", "&amp;C30&amp;", "&amp;C31&amp;", "&amp;C32&amp;", "&amp;C33&amp;", "&amp;C34&amp;", "</f>
+        <v xml:space="preserve">100, 100, 100, 450, 450, 450, 450, 450, 450, 100, 100, 100, 100, 100, 100, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 0, 0, </v>
+      </c>
+      <c r="M87" s="16"/>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>18</v>
+      </c>
+      <c r="M88" s="16"/>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A89" t="str">
+        <f>R5&amp;", "&amp;R6&amp;", "&amp;R7&amp;", "&amp;R8&amp;", "&amp;R9&amp;", "&amp;R10&amp;", "&amp;R11&amp;", "&amp;R12&amp;", "&amp;R13&amp;", "&amp;R14&amp;", "</f>
+        <v xml:space="preserve">0, 0, 0, 0, 0, 0, 0, 0, 0, 0, </v>
+      </c>
+      <c r="M89" s="16"/>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>17</v>
+      </c>
+      <c r="M90" s="16"/>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A91" t="str">
+        <f>S5&amp;", "&amp;S6&amp;", "&amp;S7&amp;", "&amp;S8&amp;", "&amp;S9&amp;", "&amp;S10&amp;", "&amp;S11&amp;", "&amp;S12&amp;", "&amp;S13&amp;", "&amp;S14</f>
+        <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+      <c r="M91" s="16"/>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M92" s="16"/>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A93" s="16"/>
+      <c r="B93" s="16"/>
+      <c r="C93" s="16"/>
+      <c r="D93" s="16"/>
+      <c r="E93" s="16"/>
+      <c r="F93" s="16"/>
+      <c r="G93" s="16"/>
+      <c r="H93" s="16"/>
+      <c r="I93" s="16"/>
+      <c r="J93" s="16"/>
+      <c r="K93" s="16"/>
+      <c r="L93" s="16"/>
+      <c r="M93" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W93"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z20" sqref="Z20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:23" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="S1" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="37">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="E2" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7">
+        <v>100</v>
+      </c>
+      <c r="D5" s="3">
+        <f>A5:A26</f>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>100</v>
+      </c>
+      <c r="L5" s="3">
+        <f>I5:I26</f>
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0</v>
+      </c>
+      <c r="T5" s="3">
+        <f>Q5:Q14</f>
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="8">
+        <f t="shared" ref="B6:B32" si="0">B5+D6</f>
+        <v>60</v>
+      </c>
+      <c r="C6" s="8">
+        <f t="shared" ref="C6:C32" si="1">C5+E6</f>
+        <v>100</v>
+      </c>
+      <c r="D6" s="2">
+        <v>60</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" ref="F6:F32" si="2">E6/D6</f>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="9">
+        <f t="shared" ref="J6:J32" si="3">J5+L6</f>
+        <v>60</v>
+      </c>
+      <c r="K6" s="9">
+        <f t="shared" ref="K6:K32" si="4">K5+M6</f>
+        <v>100</v>
+      </c>
+      <c r="L6" s="2">
+        <v>60</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="5">
+        <f t="shared" ref="N6:N30" si="5">M6/L6</f>
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6" s="9">
+        <f t="shared" ref="R6:R14" si="6">R5+T6</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="9">
+        <f t="shared" ref="S6:S14" si="7">S5+U6</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0</v>
+      </c>
+      <c r="V6" s="5" t="e">
+        <f t="shared" ref="V6:V14" si="8">U6/T6</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" s="8">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="C7" s="8">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="D7" s="2">
+        <v>30</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7" s="9">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="K7" s="9">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="L7" s="2">
+        <v>30</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>2</v>
+      </c>
+      <c r="R7" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S7" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="2">
+        <v>0</v>
+      </c>
+      <c r="U7" s="2">
+        <v>0</v>
+      </c>
+      <c r="V7" s="5" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" s="8">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="C8" s="8">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>50</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8" s="9">
+        <f t="shared" si="3"/>
+        <v>91</v>
+      </c>
+      <c r="K8" s="9">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1</v>
+      </c>
+      <c r="M8" s="2">
+        <v>50</v>
+      </c>
+      <c r="N8" s="5">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="Q8">
+        <v>3</v>
+      </c>
+      <c r="R8" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S8" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T8" s="2">
+        <v>0</v>
+      </c>
+      <c r="U8" s="2">
+        <v>0</v>
+      </c>
+      <c r="V8" s="5" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" s="8">
+        <f t="shared" si="0"/>
+        <v>151</v>
+      </c>
+      <c r="C9" s="8">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="D9" s="2">
+        <v>60</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9" s="9">
+        <f t="shared" si="3"/>
+        <v>151</v>
+      </c>
+      <c r="K9" s="9">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="L9" s="2">
+        <v>60</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>4</v>
+      </c>
+      <c r="R9" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S9" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T9" s="2">
+        <v>0</v>
+      </c>
+      <c r="U9" s="2">
+        <v>0</v>
+      </c>
+      <c r="V9" s="5" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" s="8">
+        <f t="shared" si="0"/>
+        <v>181</v>
+      </c>
+      <c r="C10" s="8">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="D10" s="2">
+        <v>30</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10" s="9">
+        <f t="shared" si="3"/>
+        <v>181</v>
+      </c>
+      <c r="K10" s="9">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="L10" s="2">
+        <v>30</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>5</v>
+      </c>
+      <c r="R10" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S10" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="2">
+        <v>0</v>
+      </c>
+      <c r="U10" s="2">
+        <v>0</v>
+      </c>
+      <c r="V10" s="5" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11" s="8">
+        <f t="shared" si="0"/>
+        <v>182</v>
+      </c>
+      <c r="C11" s="8">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>6</v>
+      </c>
+      <c r="J11" s="9">
+        <f t="shared" si="3"/>
+        <v>182</v>
+      </c>
+      <c r="K11" s="9">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>6</v>
+      </c>
+      <c r="R11" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="2">
+        <v>0</v>
+      </c>
+      <c r="U11" s="2">
+        <v>0</v>
+      </c>
+      <c r="V11" s="5" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12" s="8">
+        <f t="shared" si="0"/>
+        <v>242</v>
+      </c>
+      <c r="C12" s="8">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="D12" s="2">
+        <v>60</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>7</v>
+      </c>
+      <c r="J12" s="9">
+        <f t="shared" si="3"/>
+        <v>242</v>
+      </c>
+      <c r="K12" s="9">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="L12" s="2">
+        <v>60</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>7</v>
+      </c>
+      <c r="R12" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S12" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="2">
+        <v>0</v>
+      </c>
+      <c r="U12" s="2">
+        <v>0</v>
+      </c>
+      <c r="V12" s="5" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13" s="8">
+        <f t="shared" si="0"/>
+        <v>272</v>
+      </c>
+      <c r="C13" s="8">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="D13" s="2">
+        <v>30</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>8</v>
+      </c>
+      <c r="J13" s="9">
+        <f t="shared" si="3"/>
+        <v>272</v>
+      </c>
+      <c r="K13" s="9">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="L13" s="2">
+        <v>30</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>8</v>
+      </c>
+      <c r="R13" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="2">
+        <v>0</v>
+      </c>
+      <c r="U13" s="2">
+        <v>0</v>
+      </c>
+      <c r="V13" s="5" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>9</v>
+      </c>
+      <c r="B14" s="8">
+        <f t="shared" si="0"/>
+        <v>273</v>
+      </c>
+      <c r="C14" s="8">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>50</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="I14">
+        <v>9</v>
+      </c>
+      <c r="J14" s="9">
+        <f t="shared" si="3"/>
+        <v>273</v>
+      </c>
+      <c r="K14" s="9">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1</v>
+      </c>
+      <c r="M14" s="2">
+        <v>50</v>
+      </c>
+      <c r="N14" s="5">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="Q14">
+        <v>9</v>
+      </c>
+      <c r="R14" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="2">
+        <v>0</v>
+      </c>
+      <c r="U14" s="2">
+        <v>0</v>
+      </c>
+      <c r="V14" s="5" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15" s="8">
+        <f t="shared" si="0"/>
+        <v>333</v>
+      </c>
+      <c r="C15" s="8">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="D15" s="2">
+        <v>60</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>10</v>
+      </c>
+      <c r="J15" s="9">
+        <f t="shared" si="3"/>
+        <v>333</v>
+      </c>
+      <c r="K15" s="9">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+      <c r="L15" s="2">
+        <v>60</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>11</v>
+      </c>
+      <c r="B16" s="8">
+        <f t="shared" si="0"/>
+        <v>363</v>
+      </c>
+      <c r="C16" s="8">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="D16" s="2">
+        <v>30</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>11</v>
+      </c>
+      <c r="J16" s="9">
+        <f t="shared" si="3"/>
+        <v>363</v>
+      </c>
+      <c r="K16" s="9">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+      <c r="L16" s="2">
+        <v>30</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0</v>
+      </c>
+      <c r="N16" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>12</v>
+      </c>
+      <c r="B17" s="8">
+        <f t="shared" si="0"/>
+        <v>364</v>
+      </c>
+      <c r="C17" s="8">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>12</v>
+      </c>
+      <c r="J17" s="9">
+        <f t="shared" si="3"/>
+        <v>364</v>
+      </c>
+      <c r="K17" s="9">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+      <c r="L17" s="2">
+        <v>1</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0</v>
+      </c>
+      <c r="N17" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>13</v>
+      </c>
+      <c r="B18" s="8">
+        <f t="shared" si="0"/>
+        <v>424</v>
+      </c>
+      <c r="C18" s="8">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="D18" s="2">
+        <v>60</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>13</v>
+      </c>
+      <c r="J18" s="9">
+        <f t="shared" si="3"/>
+        <v>424</v>
+      </c>
+      <c r="K18" s="9">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+      <c r="L18" s="2">
+        <v>60</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0</v>
+      </c>
+      <c r="N18" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>14</v>
+      </c>
+      <c r="B19" s="8">
+        <f t="shared" si="0"/>
+        <v>454</v>
+      </c>
+      <c r="C19" s="8">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="D19" s="2">
+        <v>30</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>14</v>
+      </c>
+      <c r="J19" s="9">
+        <f t="shared" si="3"/>
+        <v>454</v>
+      </c>
+      <c r="K19" s="9">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+      <c r="L19" s="2">
+        <v>30</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0</v>
+      </c>
+      <c r="N19" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>15</v>
+      </c>
+      <c r="B20" s="8">
+        <f t="shared" si="0"/>
+        <v>455</v>
+      </c>
+      <c r="C20" s="8">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
+        <v>50</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="I20">
+        <v>15</v>
+      </c>
+      <c r="J20" s="9">
+        <f t="shared" si="3"/>
+        <v>455</v>
+      </c>
+      <c r="K20" s="9">
+        <f t="shared" si="4"/>
+        <v>250</v>
+      </c>
+      <c r="L20" s="2">
+        <v>1</v>
+      </c>
+      <c r="M20" s="2">
+        <v>50</v>
+      </c>
+      <c r="N20" s="5">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>16</v>
+      </c>
+      <c r="B21" s="8">
+        <f t="shared" si="0"/>
+        <v>515</v>
+      </c>
+      <c r="C21" s="8">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+      <c r="D21" s="2">
+        <v>60</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>16</v>
+      </c>
+      <c r="J21" s="9">
+        <f t="shared" si="3"/>
+        <v>515</v>
+      </c>
+      <c r="K21" s="9">
+        <f t="shared" si="4"/>
+        <v>250</v>
+      </c>
+      <c r="L21" s="2">
+        <v>60</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0</v>
+      </c>
+      <c r="N21" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>17</v>
+      </c>
+      <c r="B22" s="8">
+        <f t="shared" si="0"/>
+        <v>545</v>
+      </c>
+      <c r="C22" s="8">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+      <c r="D22" s="2">
+        <v>30</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>17</v>
+      </c>
+      <c r="J22" s="9">
+        <f t="shared" si="3"/>
+        <v>545</v>
+      </c>
+      <c r="K22" s="9">
+        <f t="shared" si="4"/>
+        <v>250</v>
+      </c>
+      <c r="L22" s="2">
+        <v>30</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0</v>
+      </c>
+      <c r="N22" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>18</v>
+      </c>
+      <c r="B23" s="8">
+        <f t="shared" si="0"/>
+        <v>546</v>
+      </c>
+      <c r="C23" s="8">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>18</v>
+      </c>
+      <c r="J23" s="9">
+        <f t="shared" si="3"/>
+        <v>546</v>
+      </c>
+      <c r="K23" s="9">
+        <f t="shared" si="4"/>
+        <v>250</v>
+      </c>
+      <c r="L23" s="2">
+        <v>1</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0</v>
+      </c>
+      <c r="N23" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>19</v>
+      </c>
+      <c r="B24" s="8">
+        <f t="shared" si="0"/>
+        <v>576</v>
+      </c>
+      <c r="C24" s="8">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+      <c r="D24" s="2">
+        <v>30</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>19</v>
+      </c>
+      <c r="J24" s="9">
+        <f t="shared" si="3"/>
+        <v>576</v>
+      </c>
+      <c r="K24" s="9">
+        <f t="shared" si="4"/>
+        <v>250</v>
+      </c>
+      <c r="L24" s="2">
+        <v>30</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0</v>
+      </c>
+      <c r="N24" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>20</v>
+      </c>
+      <c r="B25" s="8">
+        <f t="shared" si="0"/>
+        <v>577</v>
+      </c>
+      <c r="C25" s="8">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2">
+        <v>-50</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" si="2"/>
+        <v>-50</v>
+      </c>
+      <c r="I25">
+        <v>20</v>
+      </c>
+      <c r="J25" s="9">
+        <f t="shared" si="3"/>
+        <v>577</v>
+      </c>
+      <c r="K25" s="9">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+      <c r="L25" s="2">
+        <v>1</v>
+      </c>
+      <c r="M25" s="2">
+        <v>-50</v>
+      </c>
+      <c r="N25" s="5">
+        <f t="shared" si="5"/>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>21</v>
+      </c>
+      <c r="B26" s="8">
+        <f t="shared" si="0"/>
+        <v>607</v>
+      </c>
+      <c r="C26" s="8">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="D26" s="2">
+        <v>30</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>21</v>
+      </c>
+      <c r="J26" s="9">
+        <f t="shared" si="3"/>
+        <v>607</v>
+      </c>
+      <c r="K26" s="9">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+      <c r="L26" s="2">
+        <v>30</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0</v>
+      </c>
+      <c r="N26" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>22</v>
+      </c>
+      <c r="B27" s="8">
+        <f t="shared" si="0"/>
+        <v>608</v>
+      </c>
+      <c r="C27" s="8">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2">
+        <v>-50</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" si="2"/>
+        <v>-50</v>
+      </c>
+      <c r="I27">
+        <v>22</v>
+      </c>
+      <c r="J27" s="9">
+        <f t="shared" si="3"/>
+        <v>608</v>
+      </c>
+      <c r="K27" s="9">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="L27" s="2">
+        <v>1</v>
+      </c>
+      <c r="M27" s="2">
+        <v>-50</v>
+      </c>
+      <c r="N27" s="5">
+        <f t="shared" si="5"/>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>23</v>
+      </c>
+      <c r="B28" s="8">
+        <f t="shared" si="0"/>
+        <v>638</v>
+      </c>
+      <c r="C28" s="8">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="D28" s="2">
+        <v>30</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>23</v>
+      </c>
+      <c r="J28" s="9">
+        <f t="shared" si="3"/>
+        <v>638</v>
+      </c>
+      <c r="K28" s="9">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="L28" s="2">
+        <v>30</v>
+      </c>
+      <c r="M28" s="2">
+        <v>0</v>
+      </c>
+      <c r="N28" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>24</v>
+      </c>
+      <c r="B29" s="8">
+        <f t="shared" si="0"/>
+        <v>639</v>
+      </c>
+      <c r="C29" s="8">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2">
+        <v>-50</v>
+      </c>
+      <c r="F29" s="5">
+        <f t="shared" si="2"/>
+        <v>-50</v>
+      </c>
+      <c r="I29">
+        <v>24</v>
+      </c>
+      <c r="J29" s="9">
+        <f t="shared" si="3"/>
+        <v>639</v>
+      </c>
+      <c r="K29" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="2">
+        <v>1</v>
+      </c>
+      <c r="M29" s="2">
+        <v>-150</v>
+      </c>
+      <c r="N29" s="5">
+        <f t="shared" si="5"/>
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>25</v>
+      </c>
+      <c r="B30" s="8">
+        <f t="shared" si="0"/>
+        <v>669</v>
+      </c>
+      <c r="C30" s="8">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="D30" s="2">
+        <v>30</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+      <c r="F30" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>25</v>
+      </c>
+      <c r="J30" s="9">
+        <f t="shared" si="3"/>
+        <v>669</v>
+      </c>
+      <c r="K30" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="2">
+        <v>30</v>
+      </c>
+      <c r="M30" s="2">
+        <v>0</v>
+      </c>
+      <c r="N30" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>26</v>
+      </c>
+      <c r="B31" s="8">
+        <f t="shared" si="0"/>
+        <v>670</v>
+      </c>
+      <c r="C31" s="8">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2">
+        <v>-50</v>
+      </c>
+      <c r="F31" s="5">
+        <f t="shared" si="2"/>
+        <v>-50</v>
+      </c>
+      <c r="I31">
+        <v>26</v>
+      </c>
+      <c r="J31" s="9">
+        <f t="shared" si="3"/>
+        <v>670</v>
+      </c>
+      <c r="K31" s="9">
+        <f t="shared" si="4"/>
+        <v>-50</v>
+      </c>
+      <c r="L31" s="2">
+        <v>1</v>
+      </c>
+      <c r="M31" s="2">
+        <v>-50</v>
+      </c>
+      <c r="N31" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>27</v>
+      </c>
+      <c r="B32" s="8">
+        <f t="shared" si="0"/>
+        <v>770</v>
+      </c>
+      <c r="C32" s="8">
+        <f t="shared" si="1"/>
+        <v>-50</v>
+      </c>
+      <c r="D32" s="2">
+        <v>100</v>
+      </c>
+      <c r="E32" s="2">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="5">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="I32">
+        <v>27</v>
+      </c>
+      <c r="J32" s="9">
+        <f t="shared" si="3"/>
+        <v>770</v>
+      </c>
+      <c r="K32" s="9">
+        <f t="shared" si="4"/>
+        <v>-150</v>
+      </c>
+      <c r="L32" s="2">
+        <v>100</v>
+      </c>
+      <c r="M32" s="2">
+        <v>-100</v>
+      </c>
+      <c r="N32" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>28</v>
+      </c>
+      <c r="B33" s="8">
+        <v>0</v>
+      </c>
+      <c r="C33" s="8">
+        <v>0</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
+      <c r="F33" s="15">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>28</v>
+      </c>
+      <c r="J33" s="9">
+        <v>0</v>
+      </c>
+      <c r="K33" s="9">
+        <v>0</v>
+      </c>
+      <c r="L33" s="2">
+        <v>0</v>
+      </c>
+      <c r="M33" s="2">
+        <v>0</v>
+      </c>
+      <c r="N33" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>29</v>
+      </c>
+      <c r="B34" s="8">
+        <v>0</v>
+      </c>
+      <c r="C34" s="8">
+        <v>0</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+      <c r="F34" s="15">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>29</v>
+      </c>
+      <c r="J34" s="9">
+        <v>0</v>
+      </c>
+      <c r="K34" s="9">
+        <v>0</v>
+      </c>
+      <c r="L34" s="2">
+        <v>0</v>
+      </c>
+      <c r="M34" s="2">
+        <v>0</v>
+      </c>
+      <c r="N34" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B78" s="18"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="18"/>
+      <c r="G78" s="18"/>
+      <c r="H78" s="18"/>
+      <c r="I78" s="18"/>
+      <c r="J78" s="18"/>
+      <c r="K78" s="18"/>
+      <c r="L78" s="18"/>
+      <c r="M78" s="18"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A79" s="16"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="16"/>
+      <c r="H79" s="16"/>
+      <c r="I79" s="16"/>
+      <c r="J79" s="16"/>
+      <c r="K79" s="16"/>
+      <c r="L79" s="16"/>
+      <c r="M79" s="16"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>13</v>
+      </c>
+      <c r="M80" s="16"/>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A81" t="str">
+        <f>J5&amp;", "&amp;J6&amp;", "&amp;J7&amp;", "&amp;J8&amp;", "&amp;J9&amp;", "&amp;J10&amp;", "&amp;J11&amp;", "&amp;J12&amp;", "&amp;J13&amp;", "&amp;J14&amp;", "&amp;J15&amp;", "&amp;J16&amp;", "&amp;J17&amp;", "&amp;J18&amp;", "&amp;J19&amp;", "&amp;J20&amp;", "&amp;J21&amp;", "&amp;J22&amp;", "&amp;J23&amp;", "&amp;J24&amp;", "&amp;J25&amp;", "&amp;J26&amp;", "&amp;J27&amp;", "&amp;J28&amp;", "&amp;J29&amp;", "&amp;J30&amp;", "&amp;J31&amp;", "&amp;J32&amp;", "&amp;J33&amp;", "&amp;J34&amp;", "</f>
+        <v xml:space="preserve">0, 60, 90, 91, 151, 181, 182, 242, 272, 273, 333, 363, 364, 424, 454, 455, 515, 545, 546, 576, 577, 607, 608, 638, 639, 669, 670, 770, 0, 0, </v>
+      </c>
+      <c r="M81" s="16"/>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>12</v>
+      </c>
+      <c r="M82" s="16"/>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A83" s="6" t="str">
+        <f>K5&amp;", "&amp;K6&amp;", "&amp;K7&amp;", "&amp;K8&amp;", "&amp;K9&amp;", "&amp;K10&amp;", "&amp;K11&amp;", "&amp;K12&amp;", "&amp;K13&amp;", "&amp;K14&amp;", "&amp;K15&amp;", "&amp;K16&amp;", "&amp;K17&amp;", "&amp;K18&amp;", "&amp;K19&amp;", "&amp;K20&amp;", "&amp;K21&amp;", "&amp;K22&amp;", "&amp;K23&amp;", "&amp;K24&amp;", "&amp;K25&amp;", "&amp;K26&amp;", "&amp;K27&amp;", "&amp;K28&amp;", "&amp;K29&amp;", "&amp;K30&amp;", "&amp;K31&amp;", "&amp;K32&amp;", "&amp;K33&amp;", "&amp;K34&amp;", "</f>
+        <v xml:space="preserve">100, 100, 100, 150, 150, 150, 150, 150, 150, 200, 200, 200, 200, 200, 200, 250, 250, 250, 250, 250, 200, 200, 150, 150, 0, 0, -50, -150, 0, 0, </v>
+      </c>
+      <c r="M83" s="16"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>15</v>
+      </c>
+      <c r="M84" s="16"/>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A85" t="str">
+        <f>B5&amp;", "&amp;B6&amp;", "&amp;B7&amp;", "&amp;B8&amp;", "&amp;B9&amp;", "&amp;B10&amp;", "&amp;B11&amp;", "&amp;B12&amp;", "&amp;B13&amp;", "&amp;B14&amp;", "&amp;B15&amp;", "&amp;B16&amp;", "&amp;B17&amp;", "&amp;B18&amp;", "&amp;B19&amp;", "&amp;B20&amp;", "&amp;B21&amp;", "&amp;B22&amp;", "&amp;B23&amp;", "&amp;B24&amp;", "&amp;B25&amp;", "&amp;B26&amp;", "&amp;B27&amp;", "&amp;B28&amp;", "&amp;B29&amp;", "&amp;B30&amp;", "&amp;B31&amp;", "&amp;B32&amp;", "&amp;B33&amp;", "&amp;B34&amp;", "</f>
+        <v xml:space="preserve">0, 60, 90, 91, 151, 181, 182, 242, 272, 273, 333, 363, 364, 424, 454, 455, 515, 545, 546, 576, 577, 607, 608, 638, 639, 669, 670, 770, 0, 0, </v>
+      </c>
+      <c r="M85" s="16"/>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>14</v>
+      </c>
+      <c r="M86" s="16"/>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A87" t="str">
+        <f>C5&amp;", "&amp;C6&amp;", "&amp;C7&amp;", "&amp;C8&amp;", "&amp;C9&amp;", "&amp;C10&amp;", "&amp;C11&amp;", "&amp;C12&amp;", "&amp;C13&amp;", "&amp;C14&amp;", "&amp;C15&amp;", "&amp;C16&amp;", "&amp;C17&amp;", "&amp;C18&amp;", "&amp;C19&amp;", "&amp;C20&amp;", "&amp;C21&amp;", "&amp;C22&amp;", "&amp;C23&amp;", "&amp;C24&amp;", "&amp;C25&amp;", "&amp;C26&amp;", "&amp;C27&amp;", "&amp;C28&amp;", "&amp;C29&amp;", "&amp;C30&amp;", "&amp;C31&amp;", "&amp;C32&amp;", "&amp;C33&amp;", "&amp;C34&amp;", "</f>
+        <v xml:space="preserve">100, 100, 100, 150, 150, 150, 150, 150, 150, 200, 200, 200, 200, 200, 200, 250, 250, 250, 250, 250, 200, 200, 150, 150, 100, 100, 50, -50, 0, 0, </v>
+      </c>
+      <c r="M87" s="16"/>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>18</v>
+      </c>
+      <c r="M88" s="16"/>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A89" t="str">
+        <f>R5&amp;", "&amp;R6&amp;", "&amp;R7&amp;", "&amp;R8&amp;", "&amp;R9&amp;", "&amp;R10&amp;", "&amp;R11&amp;", "&amp;R12&amp;", "&amp;R13&amp;", "&amp;R14&amp;", "</f>
+        <v xml:space="preserve">0, 0, 0, 0, 0, 0, 0, 0, 0, 0, </v>
+      </c>
+      <c r="M89" s="16"/>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>17</v>
+      </c>
+      <c r="M90" s="16"/>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A91" t="str">
+        <f>S5&amp;", "&amp;S6&amp;", "&amp;S7&amp;", "&amp;S8&amp;", "&amp;S9&amp;", "&amp;S10&amp;", "&amp;S11&amp;", "&amp;S12&amp;", "&amp;S13&amp;", "&amp;S14</f>
+        <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+      <c r="M91" s="16"/>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M92" s="16"/>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A93" s="16"/>
+      <c r="B93" s="16"/>
+      <c r="C93" s="16"/>
+      <c r="D93" s="16"/>
+      <c r="E93" s="16"/>
+      <c r="F93" s="16"/>
+      <c r="G93" s="16"/>
+      <c r="H93" s="16"/>
+      <c r="I93" s="16"/>
+      <c r="J93" s="16"/>
+      <c r="K93" s="16"/>
+      <c r="L93" s="16"/>
+      <c r="M93" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>